--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,10 +531,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>23.01683033333333</v>
+        <v>0.09179766666666667</v>
       </c>
       <c r="H2">
-        <v>69.05049100000001</v>
+        <v>0.275393</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +549,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>265.842631</v>
+        <v>0.006768333333333334</v>
       </c>
       <c r="N2">
-        <v>797.5278929999999</v>
+        <v>0.020305</v>
       </c>
       <c r="O2">
-        <v>0.99055425962745</v>
+        <v>0.00347174015482542</v>
       </c>
       <c r="P2">
-        <v>0.99055425962745</v>
+        <v>0.00347174015482542</v>
       </c>
       <c r="Q2">
-        <v>6118.85473309394</v>
+        <v>0.0006213172072222223</v>
       </c>
       <c r="R2">
-        <v>55069.69259784547</v>
+        <v>0.005591854865</v>
       </c>
       <c r="S2">
-        <v>0.99055425962745</v>
+        <v>0.00347174015482542</v>
       </c>
       <c r="T2">
-        <v>0.99055425962745</v>
+        <v>0.00347174015482542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +593,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>23.01683033333333</v>
+        <v>0.09179766666666667</v>
       </c>
       <c r="H3">
-        <v>69.05049100000001</v>
+        <v>0.275393</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,84 +617,22 @@
         <v>5.828347</v>
       </c>
       <c r="O3">
-        <v>0.007238986871944891</v>
+        <v>0.9965282598451746</v>
       </c>
       <c r="P3">
-        <v>0.007238986871944891</v>
+        <v>0.9965282598451747</v>
       </c>
       <c r="Q3">
-        <v>44.71669134093078</v>
+        <v>0.1783428850412222</v>
       </c>
       <c r="R3">
-        <v>402.4502220683771</v>
+        <v>1.605085965371</v>
       </c>
       <c r="S3">
-        <v>0.007238986871944891</v>
+        <v>0.9965282598451746</v>
       </c>
       <c r="T3">
-        <v>0.007238986871944891</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>23.01683033333333</v>
-      </c>
-      <c r="H4">
-        <v>69.05049100000001</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.5922433333333333</v>
-      </c>
-      <c r="N4">
-        <v>1.77673</v>
-      </c>
-      <c r="O4">
-        <v>0.002206753500604999</v>
-      </c>
-      <c r="P4">
-        <v>0.002206753500604999</v>
-      </c>
-      <c r="Q4">
-        <v>13.63156431938111</v>
-      </c>
-      <c r="R4">
-        <v>122.68407887443</v>
-      </c>
-      <c r="S4">
-        <v>0.002206753500604999</v>
-      </c>
-      <c r="T4">
-        <v>0.002206753500604999</v>
+        <v>0.9965282598451747</v>
       </c>
     </row>
   </sheetData>
